--- a/nature-subjects/nature_subjects_to_snt.xlsx
+++ b/nature-subjects/nature_subjects_to_snt.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="As of 2020-09-21" sheetId="1" r:id="rId1"/>
+    <sheet name="As of 2020-09-25" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11282" uniqueCount="5671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11286" uniqueCount="5671">
   <si>
     <t>nature_code</t>
   </si>
@@ -850,13 +850,13 @@
     <t>biomaterials</t>
   </si>
   <si>
-    <t>biomaterials â€“ cells</t>
-  </si>
-  <si>
-    <t>biomaterials â€“ proteins</t>
-  </si>
-  <si>
-    <t>biomaterials â€“ vaccines</t>
+    <t>biomaterials – cells</t>
+  </si>
+  <si>
+    <t>biomaterials – proteins</t>
+  </si>
+  <si>
+    <t>biomaterials – vaccines</t>
   </si>
   <si>
     <t>biomechanics</t>
@@ -949,7 +949,7 @@
     <t>bladder disease</t>
   </si>
   <si>
-    <t>bloodâ€“brain barrier</t>
+    <t>blood–brain barrier</t>
   </si>
   <si>
     <t>blood flow</t>
@@ -1012,7 +1012,7 @@
     <t>boreal ecology</t>
   </si>
   <si>
-    <t>boseâ€“einstein condensates</t>
+    <t>bose–einstein condensates</t>
   </si>
   <si>
     <t>brain</t>
@@ -1024,7 +1024,7 @@
     <t>brain injuries</t>
   </si>
   <si>
-    <t>brainâ€“machine interface</t>
+    <t>brain–machine interface</t>
   </si>
   <si>
     <t>brainstem</t>
@@ -1300,7 +1300,7 @@
     <t>cell migration</t>
   </si>
   <si>
-    <t>cellâ€“particle interactions</t>
+    <t>cell–particle interactions</t>
   </si>
   <si>
     <t>cell polarity</t>
@@ -2470,7 +2470,7 @@
     <t>electrical and electronic engineering</t>
   </si>
   <si>
-    <t>electrocardiography â€“ ekg</t>
+    <t>electrocardiography – ekg</t>
   </si>
   <si>
     <t>electrocatalysis</t>
@@ -2482,10 +2482,10 @@
     <t>electrodiagnosis</t>
   </si>
   <si>
-    <t>electroencephalography â€“ eeg</t>
-  </si>
-  <si>
-    <t>electromyography â€“ emg</t>
+    <t>electroencephalography – eeg</t>
+  </si>
+  <si>
+    <t>electromyography – emg</t>
   </si>
   <si>
     <t>electron microscopy</t>
@@ -2773,7 +2773,7 @@
     <t>epistasis</t>
   </si>
   <si>
-    <t>epithelialâ€“mesenchymal transition</t>
+    <t>epithelial–mesenchymal transition</t>
   </si>
   <si>
     <t>er-associated degradation</t>
@@ -3856,7 +3856,7 @@
     <t>hypoxia</t>
   </si>
   <si>
-    <t>hypoxicâ€“ischaemic encephalopathy</t>
+    <t>hypoxic–ischaemic encephalopathy</t>
   </si>
   <si>
     <t>ichthyology</t>
@@ -4054,7 +4054,7 @@
     <t>inhibition</t>
   </si>
   <si>
-    <t>inhibitionâ€“excitation balance</t>
+    <t>inhibition–excitation balance</t>
   </si>
   <si>
     <t>inhibitory rna techniques</t>
@@ -4414,7 +4414,7 @@
     <t>liquid crystals</t>
   </si>
   <si>
-    <t>liquidâ€“liquid extraction</t>
+    <t>liquid–liquid extraction</t>
   </si>
   <si>
     <t>listeria</t>
@@ -4801,7 +4801,7 @@
     <t>metagenomics</t>
   </si>
   <si>
-    <t>metalâ€“organic frameworks</t>
+    <t>metal–organic frameworks</t>
   </si>
   <si>
     <t>metalloproteins</t>
@@ -5356,7 +5356,7 @@
     <t>neural tube defects</t>
   </si>
   <si>
-    <t>neuroâ€“vascular interactions</t>
+    <t>neuro–vascular interactions</t>
   </si>
   <si>
     <t>neurochemistry</t>
@@ -5821,7 +5821,7 @@
     <t>organic chemistry</t>
   </si>
   <si>
-    <t>organicâ€“inorganic nanostructures</t>
+    <t>organic–inorganic nanostructures</t>
   </si>
   <si>
     <t>organic leds</t>
@@ -6694,7 +6694,7 @@
     <t>protein function predictions</t>
   </si>
   <si>
-    <t>proteinâ€“protein interaction networks</t>
+    <t>protein–protein interaction networks</t>
   </si>
   <si>
     <t>protein purification</t>
@@ -6775,7 +6775,7 @@
     <t>public health</t>
   </si>
   <si>
-    <t>publicâ€“private partnerships</t>
+    <t>public–private partnerships</t>
   </si>
   <si>
     <t>publication characteristics</t>
@@ -7384,10 +7384,10 @@
     <t>sirnas</t>
   </si>
   <si>
-    <t>sjã¶gren's disease</t>
-  </si>
-  <si>
-    <t>sjã¶gren's syndrome</t>
+    <t>sjögren's disease</t>
+  </si>
+  <si>
+    <t>sjögren's syndrome</t>
   </si>
   <si>
     <t>skeletal muscle</t>
@@ -8470,7 +8470,7 @@
     <t>virulence</t>
   </si>
   <si>
-    <t>virusâ€“host interactions</t>
+    <t>virus–host interactions</t>
   </si>
   <si>
     <t>virus structures</t>
@@ -8842,7 +8842,7 @@
     <t>aspergillus nidulan,emericella nidulans</t>
   </si>
   <si>
-    <t>carbonaceous chondrite,carbonaceous chondrites,chondrite,chondrites,comet (astronomy),comets (astronomy),edgeworthâ€“kuiper belt,meteor,meteorite,meteorites,meteoroid,meteors,minor planet,minor planets,planetoids,plutoid,plutoids</t>
+    <t>carbonaceous chondrite,carbonaceous chondrites,chondrite,chondrites,comet (astronomy),comets (astronomy),edgeworth–kuiper belt,meteor,meteorite,meteorites,meteoroid,meteors,minor planet,minor planets,planetoids,plutoid,plutoids</t>
   </si>
   <si>
     <t>asthmas,bronchial asthma</t>
@@ -9181,7 +9181,7 @@
     <t>acute brain injuries,acute brain injury,brain contusion,brain contusions,brain laceration,brain lacerations,brain trauma,brain traumas,cortical contusion,cortical contusions,diffuse brain injuries,diffuse brain injury,focal brain injuries,focal brain injury,post concussive encephalopathy,post traumatic encephalopathy,post-concussive encephalopathies,post-concussive encephalopathy,post-traumatic encephalopathies,post-traumatic encephalopathy,tbi (traumatic brain injury),tbis (traumatic brain injury),traumatic brain injuries,traumatic brain injury,traumatic encephalopathies,traumatic encephalopathy</t>
   </si>
   <si>
-    <t>brainâ€“computer interface (bci),brainâ€“machine interface (bmi),direct neural interface,mind-machine interface (mmi)</t>
+    <t>brain–computer interface (bci),brain–machine interface (bmi),direct neural interface,mind-machine interface (mmi)</t>
   </si>
   <si>
     <t>brain stem,brain stems,brainstems</t>
@@ -10177,7 +10177,7 @@
     <t>fish,fish technic,fish technique,fluorescent in situ hybridization,single molecule fish,smfish</t>
   </si>
   <si>
-    <t>fret,forster resonance energy transfer,fã¶rster resonance energy transfer,single-molecule fret,smfret</t>
+    <t>fret,forster resonance energy transfer,förster resonance energy transfer,single-molecule fret,smfret</t>
   </si>
   <si>
     <t>fluorescence spectrometry,fluorescence spectrophotometry,fluorescence spectrometry,spectrofluorometry</t>
@@ -10279,7 +10279,7 @@
     <t>gall bladder diseases,gallbladder disease,gallbladder diseases</t>
   </si>
   <si>
-    <t>?d t cells,gamma delta t cells,î³î´ t cells</t>
+    <t>?d t cells,gamma delta t cells,γδ t cells</t>
   </si>
   <si>
     <t>electrical synapse,gap junction</t>
@@ -10666,7 +10666,7 @@
     <t>anoxemia,anoxemias,anoxia,anoxias,hypoxemia,hypoxemias,hypoxias,oxygen deficiencies,oxygen deficiency</t>
   </si>
   <si>
-    <t>hypoxicâ€“ischemic encephalopathy</t>
+    <t>hypoxic–ischemic encephalopathy</t>
   </si>
   <si>
     <t>focal myositides,focal myositis,idiopathic inflammatory myopathy,infectious myositides,infectious myositis,inflammatory muscle disease,inflammatory muscle diseases,inflammatory myopathies,inflammatory myopathy,myositides,myositis,proliferative myositides,proliferative myositis</t>
@@ -12985,7 +12985,7 @@
     <t>angiitides,angiitis,vasculitides</t>
   </si>
   <si>
-    <t>arteritis,behã§et's disease,churg strauss syndrome,granulomatosis,henoch-schã¶nlein purpura,kawasaki disease,polyangiitis,polymyalgia rheumatica,vaculitides,vasculitic disorders,vasculitic syndromes,vasculitis,vasculitis diseases,wegener's granulomatosis</t>
+    <t>arteritis,behçet's disease,churg strauss syndrome,granulomatosis,henoch-schönlein purpura,kawasaki disease,polyangiitis,polymyalgia rheumatica,vaculitides,vasculitic disorders,vasculitic syndromes,vasculitis,vasculitis diseases,wegener's granulomatosis</t>
   </si>
   <si>
     <t>vascular endothelium dependent relaxation,vascular endothelium-dependent relaxation,vasodilatation,vasorelaxation</t>
@@ -65458,6 +65458,15 @@
       <c r="C2451" t="s">
         <v>4151</v>
       </c>
+      <c r="D2451">
+        <v>5786</v>
+      </c>
+      <c r="E2451" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H2451" t="s">
+        <v>5668</v>
+      </c>
     </row>
     <row r="2452" spans="1:8">
       <c r="A2452">
@@ -72583,6 +72592,15 @@
       </c>
       <c r="B2813" t="s">
         <v>2818</v>
+      </c>
+      <c r="D2813">
+        <v>4617</v>
+      </c>
+      <c r="E2813" t="s">
+        <v>2818</v>
+      </c>
+      <c r="H2813" t="s">
+        <v>5668</v>
       </c>
     </row>
     <row r="2814" spans="1:8">
